--- a/SMA - Software Measurement & Analysis/Assignment-10/SMA-TinNguyen-Ass10-ver0.1-update.xlsx
+++ b/SMA - Software Measurement & Analysis/Assignment-10/SMA-TinNguyen-Ass10-ver0.1-update.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -669,6 +669,9 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
       <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
@@ -828,7 +831,7 @@
         <v>19</v>
       </c>
       <c r="F13" s="2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>49</v>
